--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/detail.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/detail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -785,18 +780,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Container</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Block?</t>
     </r>
   </si>
@@ -809,71 +792,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>I’m clearly aware of the cost issue and will delete associated resources on my own if I don’t need them</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Cancel</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Intranet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EIP to be bound</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Please select EIP'</t>
-    </r>
-  </si>
-  <si>
     <t>Please select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intranet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I’m clearly aware of the cost issue and will delete associated resources on my own if I don’t need them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIP to be bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select EIP'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -894,6 +841,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -917,9 +871,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1261,16 +1222,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="48.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,7 +1290,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,10 +1408,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1457,10 +1419,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1468,10 +1430,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1479,10 +1441,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1490,10 +1452,11 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1501,10 +1464,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1512,10 +1475,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1523,23 +1486,24 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A24" numberStoredAsText="1"/>
   </ignoredErrors>
